--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Liph-Lpar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Liph-Lpar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,40 +546,40 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I2">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J2">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6871893333333333</v>
+        <v>0.3287666666666667</v>
       </c>
       <c r="N2">
-        <v>2.061568</v>
+        <v>0.9863</v>
       </c>
       <c r="O2">
-        <v>0.01335900259474919</v>
+        <v>0.007111616441503455</v>
       </c>
       <c r="P2">
-        <v>0.01481175743022768</v>
+        <v>0.007677679449215435</v>
       </c>
       <c r="Q2">
-        <v>0.192428818688</v>
+        <v>0.09206222830000001</v>
       </c>
       <c r="R2">
-        <v>1.731859368192</v>
+        <v>0.8285600547</v>
       </c>
       <c r="S2">
-        <v>0.004389965613980298</v>
+        <v>0.00456851959999768</v>
       </c>
       <c r="T2">
-        <v>0.005805523972374166</v>
+        <v>0.004932159845058352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I3">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J3">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>103.456514</v>
       </c>
       <c r="O3">
-        <v>0.6704003161524168</v>
+        <v>0.7459627354182625</v>
       </c>
       <c r="P3">
-        <v>0.743304508968394</v>
+        <v>0.8053390970549215</v>
       </c>
       <c r="Q3">
         <v>9.656734473274</v>
@@ -638,10 +638,10 @@
         <v>86.91061025946601</v>
       </c>
       <c r="S3">
-        <v>0.2203034481531879</v>
+        <v>0.4792082651895309</v>
       </c>
       <c r="T3">
-        <v>0.291340994876358</v>
+        <v>0.5173517834943904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I4">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J4">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6248056666666667</v>
+        <v>0.7963386666666666</v>
       </c>
       <c r="N4">
-        <v>1.874417</v>
+        <v>2.389016</v>
       </c>
       <c r="O4">
-        <v>0.01214626030605927</v>
+        <v>0.01722575835406551</v>
       </c>
       <c r="P4">
-        <v>0.01346713274900226</v>
+        <v>0.01859687625169509</v>
       </c>
       <c r="Q4">
-        <v>0.174959957197</v>
+        <v>0.222993142456</v>
       </c>
       <c r="R4">
-        <v>1.574639614773</v>
+        <v>2.006938282104</v>
       </c>
       <c r="S4">
-        <v>0.003991440581276052</v>
+        <v>0.01106586882359126</v>
       </c>
       <c r="T4">
-        <v>0.005278493276828933</v>
+        <v>0.011946678276794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I5">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J5">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.135939</v>
+        <v>10.225287</v>
       </c>
       <c r="N5">
-        <v>30.271878</v>
+        <v>20.450574</v>
       </c>
       <c r="O5">
-        <v>0.2942435782496121</v>
+        <v>0.2211851946110459</v>
       </c>
       <c r="P5">
-        <v>0.2174945060718084</v>
+        <v>0.1591939082677274</v>
       </c>
       <c r="Q5">
-        <v>4.238411046597</v>
+        <v>2.863315541601</v>
       </c>
       <c r="R5">
-        <v>25.430466279582</v>
+        <v>17.179893249606</v>
       </c>
       <c r="S5">
-        <v>0.09669278686704004</v>
+        <v>0.1420899039088558</v>
       </c>
       <c r="T5">
-        <v>0.08524778877911675</v>
+        <v>0.1022665516487827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,40 +794,40 @@
         <v>0.8400690000000001</v>
       </c>
       <c r="I6">
-        <v>0.3286147736587604</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="J6">
-        <v>0.3919537569881015</v>
+        <v>0.6424024182935064</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.506729</v>
+        <v>0.3936303333333333</v>
       </c>
       <c r="N6">
-        <v>1.520187</v>
+        <v>1.180891</v>
       </c>
       <c r="O6">
-        <v>0.00985084269716254</v>
+        <v>0.008514695175122636</v>
       </c>
       <c r="P6">
-        <v>0.01092209478056777</v>
+        <v>0.009192438976440703</v>
       </c>
       <c r="Q6">
-        <v>0.141895774767</v>
+        <v>0.110225546831</v>
       </c>
       <c r="R6">
-        <v>1.277061972903</v>
+        <v>0.992029921479</v>
       </c>
       <c r="S6">
-        <v>0.003237132443276121</v>
+        <v>0.005469860771530832</v>
       </c>
       <c r="T6">
-        <v>0.00428095608342367</v>
+        <v>0.005905245028480993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H7">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I7">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J7">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6871893333333333</v>
+        <v>0.3287666666666667</v>
       </c>
       <c r="N7">
-        <v>2.061568</v>
+        <v>0.9863</v>
       </c>
       <c r="O7">
-        <v>0.01335900259474919</v>
+        <v>0.007111616441503455</v>
       </c>
       <c r="P7">
-        <v>0.01481175743022768</v>
+        <v>0.007677679449215435</v>
       </c>
       <c r="Q7">
-        <v>0.01813584275911111</v>
+        <v>0.0114943402</v>
       </c>
       <c r="R7">
-        <v>0.163222584832</v>
+        <v>0.1034490618</v>
       </c>
       <c r="S7">
-        <v>0.00041374117783334</v>
+        <v>0.0005703980824972194</v>
       </c>
       <c r="T7">
-        <v>0.0005471533350102814</v>
+        <v>0.0006158000325077944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H8">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I8">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J8">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>103.456514</v>
       </c>
       <c r="O8">
-        <v>0.6704003161524168</v>
+        <v>0.7459627354182625</v>
       </c>
       <c r="P8">
-        <v>0.743304508968394</v>
+        <v>0.8053390970549215</v>
       </c>
       <c r="Q8">
-        <v>0.9101184488262222</v>
+        <v>1.205682214156</v>
       </c>
       <c r="R8">
-        <v>8.191066039435999</v>
+        <v>10.851139927404</v>
       </c>
       <c r="S8">
-        <v>0.02076294352497294</v>
+        <v>0.0598310830451655</v>
       </c>
       <c r="T8">
-        <v>0.02745802062490196</v>
+        <v>0.06459345501809094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H9">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I9">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J9">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6248056666666667</v>
+        <v>0.7963386666666666</v>
       </c>
       <c r="N9">
-        <v>1.874417</v>
+        <v>2.389016</v>
       </c>
       <c r="O9">
-        <v>0.01214626030605927</v>
+        <v>0.01722575835406551</v>
       </c>
       <c r="P9">
-        <v>0.01346713274900226</v>
+        <v>0.01859687625169509</v>
       </c>
       <c r="Q9">
-        <v>0.01648945461755556</v>
+        <v>0.027841592464</v>
       </c>
       <c r="R9">
-        <v>0.148405091558</v>
+        <v>0.2505743321759999</v>
       </c>
       <c r="S9">
-        <v>0.0003761813810317368</v>
+        <v>0.001381618316389716</v>
       </c>
       <c r="T9">
-        <v>0.0004974822624089853</v>
+        <v>0.001491590926149895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H10">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I10">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J10">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.135939</v>
+        <v>10.225287</v>
       </c>
       <c r="N10">
-        <v>30.271878</v>
+        <v>20.450574</v>
       </c>
       <c r="O10">
-        <v>0.2942435782496121</v>
+        <v>0.2211851946110459</v>
       </c>
       <c r="P10">
-        <v>0.2174945060718084</v>
+        <v>0.1591939082677274</v>
       </c>
       <c r="Q10">
-        <v>0.399457611462</v>
+        <v>0.357496484094</v>
       </c>
       <c r="R10">
-        <v>2.396745668772</v>
+        <v>2.144978904564</v>
       </c>
       <c r="S10">
-        <v>0.009113007035625679</v>
+        <v>0.01774049710367153</v>
       </c>
       <c r="T10">
-        <v>0.008034350069813061</v>
+        <v>0.01276839109196295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02639133333333333</v>
+        <v>0.034962</v>
       </c>
       <c r="H11">
-        <v>0.07917399999999999</v>
+        <v>0.104886</v>
       </c>
       <c r="I11">
-        <v>0.03097096320618746</v>
+        <v>0.0802065307077546</v>
       </c>
       <c r="J11">
-        <v>0.03694047364654087</v>
+        <v>0.08020653070775462</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.506729</v>
+        <v>0.3936303333333333</v>
       </c>
       <c r="N11">
-        <v>1.520187</v>
+        <v>1.180891</v>
       </c>
       <c r="O11">
-        <v>0.00985084269716254</v>
+        <v>0.008514695175122636</v>
       </c>
       <c r="P11">
-        <v>0.01092209478056777</v>
+        <v>0.009192438976440703</v>
       </c>
       <c r="Q11">
-        <v>0.01337325394866667</v>
+        <v>0.013762103714</v>
       </c>
       <c r="R11">
-        <v>0.120359285538</v>
+        <v>0.123858933426</v>
       </c>
       <c r="S11">
-        <v>0.0003050900867237615</v>
+        <v>0.0006829341600306436</v>
       </c>
       <c r="T11">
-        <v>0.0004034673544065852</v>
+        <v>0.0007372936390430517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H12">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I12">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J12">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6871893333333333</v>
+        <v>0.3287666666666667</v>
       </c>
       <c r="N12">
-        <v>2.061568</v>
+        <v>0.9863</v>
       </c>
       <c r="O12">
-        <v>0.01335900259474919</v>
+        <v>0.007111616441503455</v>
       </c>
       <c r="P12">
-        <v>0.01481175743022768</v>
+        <v>0.007677679449215435</v>
       </c>
       <c r="Q12">
-        <v>0.2838837547093333</v>
+        <v>0.03975271191111111</v>
       </c>
       <c r="R12">
-        <v>1.703302528256</v>
+        <v>0.3577744071999999</v>
       </c>
       <c r="S12">
-        <v>0.006476368404891669</v>
+        <v>0.001972698759008555</v>
       </c>
       <c r="T12">
-        <v>0.005709795980905218</v>
+        <v>0.002129719571649289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H13">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I13">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J13">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>103.456514</v>
       </c>
       <c r="O13">
-        <v>0.6704003161524168</v>
+        <v>0.7459627354182625</v>
       </c>
       <c r="P13">
-        <v>0.743304508968394</v>
+        <v>0.8053390970549215</v>
       </c>
       <c r="Q13">
-        <v>14.24625510458966</v>
+        <v>4.169803301601777</v>
       </c>
       <c r="R13">
-        <v>85.477530627538</v>
+        <v>37.52822971441599</v>
       </c>
       <c r="S13">
-        <v>0.3250062566695993</v>
+        <v>0.2069233871835661</v>
       </c>
       <c r="T13">
-        <v>0.2865370377478039</v>
+        <v>0.2233938585424401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H14">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I14">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J14">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6248056666666667</v>
+        <v>0.7963386666666666</v>
       </c>
       <c r="N14">
-        <v>1.874417</v>
+        <v>2.389016</v>
       </c>
       <c r="O14">
-        <v>0.01214626030605927</v>
+        <v>0.01722575835406551</v>
       </c>
       <c r="P14">
-        <v>0.01346713274900226</v>
+        <v>0.01859687625169509</v>
       </c>
       <c r="Q14">
-        <v>0.2581125317481667</v>
+        <v>0.09628902443377776</v>
       </c>
       <c r="R14">
-        <v>1.548675190489</v>
+        <v>0.8666012199039999</v>
       </c>
       <c r="S14">
-        <v>0.005888437847498519</v>
+        <v>0.004778271214084541</v>
       </c>
       <c r="T14">
-        <v>0.005191455558652647</v>
+        <v>0.005158607048751191</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H15">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I15">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J15">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.135939</v>
+        <v>10.225287</v>
       </c>
       <c r="N15">
-        <v>30.271878</v>
+        <v>20.450574</v>
       </c>
       <c r="O15">
-        <v>0.2942435782496121</v>
+        <v>0.2211851946110459</v>
       </c>
       <c r="P15">
-        <v>0.2174945060718084</v>
+        <v>0.1591939082677274</v>
       </c>
       <c r="Q15">
-        <v>6.2527850563815</v>
+        <v>1.236387169176</v>
       </c>
       <c r="R15">
-        <v>25.011140225526</v>
+        <v>7.418323015055999</v>
       </c>
       <c r="S15">
-        <v>0.1426476116014135</v>
+        <v>0.06135479359851864</v>
       </c>
       <c r="T15">
-        <v>0.08384212761298833</v>
+        <v>0.04415896552698175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,371 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4131085</v>
+        <v>0.1209146666666667</v>
       </c>
       <c r="H16">
-        <v>0.826217</v>
+        <v>0.362744</v>
       </c>
       <c r="I16">
-        <v>0.4847943069819622</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="J16">
-        <v>0.3854907837778066</v>
+        <v>0.277391050998739</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.506729</v>
+        <v>0.3936303333333333</v>
       </c>
       <c r="N16">
-        <v>1.520187</v>
+        <v>1.180891</v>
       </c>
       <c r="O16">
-        <v>0.00985084269716254</v>
+        <v>0.008514695175122636</v>
       </c>
       <c r="P16">
-        <v>0.01092209478056777</v>
+        <v>0.009192438976440703</v>
       </c>
       <c r="Q16">
-        <v>0.2093340570965</v>
+        <v>0.04759568054488888</v>
       </c>
       <c r="R16">
-        <v>1.256004342579</v>
+        <v>0.4283611249039999</v>
       </c>
       <c r="S16">
-        <v>0.004775632458559238</v>
+        <v>0.00236190024356116</v>
       </c>
       <c r="T16">
-        <v>0.004210366877456558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.397826</v>
-      </c>
-      <c r="I17">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J17">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.6871893333333333</v>
-      </c>
-      <c r="N17">
-        <v>2.061568</v>
-      </c>
-      <c r="O17">
-        <v>0.01335900259474919</v>
-      </c>
-      <c r="P17">
-        <v>0.01481175743022768</v>
-      </c>
-      <c r="Q17">
-        <v>0.09112726124088889</v>
-      </c>
-      <c r="R17">
-        <v>0.8201453511679999</v>
-      </c>
-      <c r="S17">
-        <v>0.002078927398043883</v>
-      </c>
-      <c r="T17">
-        <v>0.002749284141938013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.397826</v>
-      </c>
-      <c r="I18">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J18">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>34.48550466666666</v>
-      </c>
-      <c r="N18">
-        <v>103.456514</v>
-      </c>
-      <c r="O18">
-        <v>0.6704003161524168</v>
-      </c>
-      <c r="P18">
-        <v>0.743304508968394</v>
-      </c>
-      <c r="Q18">
-        <v>4.573076793173778</v>
-      </c>
-      <c r="R18">
-        <v>41.157691138564</v>
-      </c>
-      <c r="S18">
-        <v>0.1043276678046567</v>
-      </c>
-      <c r="T18">
-        <v>0.1379684557193302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.397826</v>
-      </c>
-      <c r="I19">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J19">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6248056666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.874417</v>
-      </c>
-      <c r="O19">
-        <v>0.01214626030605927</v>
-      </c>
-      <c r="P19">
-        <v>0.01346713274900226</v>
-      </c>
-      <c r="Q19">
-        <v>0.08285464638244446</v>
-      </c>
-      <c r="R19">
-        <v>0.7456918174420001</v>
-      </c>
-      <c r="S19">
-        <v>0.001890200496252959</v>
-      </c>
-      <c r="T19">
-        <v>0.002499701651111691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.397826</v>
-      </c>
-      <c r="I20">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J20">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>15.135939</v>
-      </c>
-      <c r="N20">
-        <v>30.271878</v>
-      </c>
-      <c r="O20">
-        <v>0.2942435782496121</v>
-      </c>
-      <c r="P20">
-        <v>0.2174945060718084</v>
-      </c>
-      <c r="Q20">
-        <v>2.007156689538</v>
-      </c>
-      <c r="R20">
-        <v>12.042940137228</v>
-      </c>
-      <c r="S20">
-        <v>0.0457901727455329</v>
-      </c>
-      <c r="T20">
-        <v>0.04037023960989026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1326086666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.397826</v>
-      </c>
-      <c r="I21">
-        <v>0.1556199561530899</v>
-      </c>
-      <c r="J21">
-        <v>0.1856149855875511</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.506729</v>
-      </c>
-      <c r="N21">
-        <v>1.520187</v>
-      </c>
-      <c r="O21">
-        <v>0.00985084269716254</v>
-      </c>
-      <c r="P21">
-        <v>0.01092209478056777</v>
-      </c>
-      <c r="Q21">
-        <v>0.06719665705133333</v>
-      </c>
-      <c r="R21">
-        <v>0.604769913462</v>
-      </c>
-      <c r="S21">
-        <v>0.00153298770860342</v>
-      </c>
-      <c r="T21">
-        <v>0.002027304465280953</v>
+        <v>0.00254990030891666</v>
       </c>
     </row>
   </sheetData>
